--- a/Documentacion/Planning.xlsx
+++ b/Documentacion/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DouNet\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEE1DD2-5BBA-4AE9-9934-7230C3D63DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C625FFEE-53E6-4C56-9F00-792370ADCC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F8A11E9E-A349-4DC6-9524-B921B3ABF3F3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Objetivos</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Envio de logs</t>
+  </si>
+  <si>
+    <t>CodeFirst</t>
+  </si>
+  <si>
+    <t>Migrations</t>
   </si>
 </sst>
 </file>
@@ -616,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB86C2F4-17EC-42D4-B4F4-A23A75466382}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,8 +767,14 @@
       </c>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="I17" t="s">
+      <c r="I17" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.25">
@@ -807,6 +819,12 @@
     <row r="24" spans="7:13" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="7:13" x14ac:dyDescent="0.25">

--- a/Documentacion/Planning.xlsx
+++ b/Documentacion/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DouNet\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C625FFEE-53E6-4C56-9F00-792370ADCC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EAD392-6496-4268-8375-F186F8FFEAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F8A11E9E-A349-4DC6-9524-B921B3ABF3F3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Objetivos</t>
   </si>
@@ -204,13 +204,25 @@
   </si>
   <si>
     <t>Migrations</t>
+  </si>
+  <si>
+    <t>Loging with database</t>
+  </si>
+  <si>
+    <t>Visto</t>
+  </si>
+  <si>
+    <t>Solo terminal</t>
+  </si>
+  <si>
+    <t>Enviar fotos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +270,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,13 +298,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB86C2F4-17EC-42D4-B4F4-A23A75466382}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +672,9 @@
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -817,7 +840,7 @@
       </c>
     </row>
     <row r="24" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="I24" t="s">
+      <c r="I24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J24" t="s">
@@ -825,6 +848,9 @@
       </c>
       <c r="K24" t="s">
         <v>55</v>
+      </c>
+      <c r="L24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="7:13" x14ac:dyDescent="0.25">
@@ -858,78 +884,88 @@
       </c>
     </row>
     <row r="28" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
       <c r="J28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" t="s">
-        <v>4</v>
+      <c r="J29" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="7:13" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="7:13" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G34">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36">
         <v>4</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H36" t="s">
         <v>2</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I36" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="I35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="I36" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="I38" t="s">
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
         <v>7</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J39" t="s">
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
         <v>38</v>
       </c>
     </row>
